--- a/tabby/item.xlsx
+++ b/tabby/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\go\ReadExcel\tabby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666FFDDE-B7F9-4FD7-A06B-566FBB52A5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39736A97-383A-4369-AD76-982B40970276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -196,9 +196,6 @@
     <t>初始下装</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>10004,3</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>初始袜子</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>10005,4</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>初始鞋子</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>10006,4</t>
   </si>
   <si>
@@ -239,9 +230,6 @@
   </si>
   <si>
     <t>初始发饰</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>10007,5</t>
@@ -463,24 +451,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +751,7 @@
   <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -797,8 +785,8 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="5"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -829,8 +817,8 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>71</v>
+      <c r="C2" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -838,8 +826,8 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="5"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -891,10 +879,10 @@
       <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="5"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -934,22 +922,22 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>69</v>
+      <c r="F4" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="17"/>
       <c r="L4" s="5"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -1044,10 +1032,10 @@
         <v>24</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="5"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -1096,10 +1084,10 @@
       <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>10001</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -1117,7 +1105,7 @@
       <c r="F8">
         <v>10002</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
@@ -1126,10 +1114,10 @@
       <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>10002</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9">
@@ -1147,8 +1135,8 @@
       <c r="F9">
         <v>10003</v>
       </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -1156,10 +1144,10 @@
       <c r="I9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>10003</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10">
@@ -1177,29 +1165,29 @@
       <c r="F10">
         <v>10004</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>10004</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10004</v>
       </c>
       <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1207,29 +1195,29 @@
       <c r="F11">
         <v>10005</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
         <v>44</v>
       </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>10005</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10005</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1237,29 +1225,29 @@
       <c r="F12">
         <v>10006</v>
       </c>
-      <c r="G12" t="s">
-        <v>49</v>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="14">
+        <v>48</v>
+      </c>
+      <c r="J12" s="13">
         <v>10006</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10006</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1267,29 +1255,29 @@
       <c r="F13">
         <v>10007</v>
       </c>
-      <c r="G13" t="s">
-        <v>54</v>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="14">
+        <v>52</v>
+      </c>
+      <c r="J13" s="13">
         <v>10007</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>10007</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>200</v>
@@ -1301,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="14">
+        <v>55</v>
+      </c>
+      <c r="J14" s="13">
         <v>10008</v>
       </c>
-      <c r="K14" s="14"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>10008</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>300</v>
@@ -1331,25 +1319,25 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="14">
+        <v>58</v>
+      </c>
+      <c r="J15" s="13">
         <v>10009</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>10009</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -1361,33 +1349,33 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="14">
+        <v>62</v>
+      </c>
+      <c r="J16" s="13">
         <v>10010</v>
       </c>
-      <c r="K16" s="14"/>
+      <c r="K16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
